--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdh\Documents\GitHub\Stage_Henallux\Mission\VMware vxRail Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E7048-B264-4819-9FE8-05E5379BDDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B65688-CE4E-4D7D-AB78-9C009E49ED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
-    <sheet name="Par ESXI" sheetId="2" r:id="rId2"/>
+    <sheet name="Vlan 1-100" sheetId="6" r:id="rId2"/>
+    <sheet name="Vlan 200" sheetId="3" r:id="rId3"/>
+    <sheet name="Vlan 210" sheetId="4" r:id="rId4"/>
+    <sheet name="Vlan 220" sheetId="5" r:id="rId5"/>
+    <sheet name="Vlan 800" sheetId="7" r:id="rId6"/>
+    <sheet name="Switch" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
-  <si>
-    <t>Vlan :</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>Nom :</t>
   </si>
@@ -57,33 +59,18 @@
     <t>Plage IP :</t>
   </si>
   <si>
-    <t>10.0.10.0/24</t>
-  </si>
-  <si>
     <t>10.0.20.0/24</t>
   </si>
   <si>
-    <t>10.0.30.0/24</t>
-  </si>
-  <si>
     <t>GW :</t>
   </si>
   <si>
-    <t>10.0.10.1/24</t>
-  </si>
-  <si>
     <t>10.0.20.1/24</t>
   </si>
   <si>
-    <t>10.0.30.1/24</t>
-  </si>
-  <si>
     <t>ESXI-1</t>
   </si>
   <si>
-    <t>10.0.10.10</t>
-  </si>
-  <si>
     <t>ESXI-2</t>
   </si>
   <si>
@@ -93,101 +80,227 @@
     <t>ESXI-4</t>
   </si>
   <si>
-    <t>10.0.20.10</t>
-  </si>
-  <si>
-    <t>10.0.10.11</t>
-  </si>
-  <si>
     <t>10.0.20.11</t>
   </si>
   <si>
-    <t>10.0.10.12</t>
-  </si>
-  <si>
-    <t>10.0.10.13</t>
-  </si>
-  <si>
     <t>10.0.20.12</t>
   </si>
   <si>
     <t>10.0.20.13</t>
   </si>
   <si>
-    <t>2X MGT</t>
-  </si>
-  <si>
-    <t>DNS server</t>
-  </si>
-  <si>
-    <t>10.0.20.5/24</t>
-  </si>
-  <si>
-    <t>iDrac1</t>
-  </si>
-  <si>
-    <t>iDrac2</t>
-  </si>
-  <si>
-    <t>iDrac3</t>
-  </si>
-  <si>
-    <t>iDrac4</t>
-  </si>
-  <si>
     <t>vSan Network</t>
   </si>
   <si>
-    <t>10.0.40.0/24</t>
-  </si>
-  <si>
-    <t>10.0.40.1/24</t>
-  </si>
-  <si>
-    <t>2X vSan</t>
-  </si>
-  <si>
-    <t>A VOIR</t>
-  </si>
-  <si>
-    <t>10.0.40.11</t>
-  </si>
-  <si>
-    <t>10.0.40.10</t>
-  </si>
-  <si>
-    <t>10.0.40.12</t>
-  </si>
-  <si>
-    <t>10.0.40.13</t>
-  </si>
-  <si>
     <t>DNS server :</t>
   </si>
   <si>
-    <t>10.0.10.5/24</t>
-  </si>
-  <si>
-    <t>10.0.10.5</t>
-  </si>
-  <si>
-    <t>CONFIMER L'EMPLACEMENT</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
     <t>Management</t>
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Vlan ID :</t>
+  </si>
+  <si>
+    <t>1-100</t>
+  </si>
+  <si>
+    <t>10.0.X.0/24</t>
+  </si>
+  <si>
+    <t>10.0.X.1/24</t>
+  </si>
+  <si>
+    <t>pour dns et vcenter</t>
+  </si>
+  <si>
+    <t>10.0.21.0/24</t>
+  </si>
+  <si>
+    <t>10.0.21.1/24</t>
+  </si>
+  <si>
+    <t>10.0.22.1/24</t>
+  </si>
+  <si>
+    <t>10.0.22.0/24</t>
+  </si>
+  <si>
+    <t>Infra Management</t>
+  </si>
+  <si>
+    <t>172.10.80.0/24</t>
+  </si>
+  <si>
+    <t>172.10.80.1/24</t>
+  </si>
+  <si>
+    <t>10.0.20.14</t>
+  </si>
+  <si>
+    <t>ESXI-1-iDrac</t>
+  </si>
+  <si>
+    <t>ESXI-2-iDrac</t>
+  </si>
+  <si>
+    <t>ESXI-3-iDrac</t>
+  </si>
+  <si>
+    <t>ESXI-4-iDrac</t>
+  </si>
+  <si>
+    <t>10.0.21.11</t>
+  </si>
+  <si>
+    <t>10.0.21.12</t>
+  </si>
+  <si>
+    <t>10.0.21.13</t>
+  </si>
+  <si>
+    <t>10.0.21.14</t>
+  </si>
+  <si>
+    <t>SRV1_DNS</t>
+  </si>
+  <si>
+    <t>SRV2_DNS</t>
+  </si>
+  <si>
+    <t>vCenter Server</t>
+  </si>
+  <si>
+    <t>ESXI-1-vSan</t>
+  </si>
+  <si>
+    <t>ESXI-2-vSan</t>
+  </si>
+  <si>
+    <t>ESXI-3-vSan</t>
+  </si>
+  <si>
+    <t>ESXI-4-vSan</t>
+  </si>
+  <si>
+    <t>Adresse IP :</t>
+  </si>
+  <si>
+    <t>10.0.22.5</t>
+  </si>
+  <si>
+    <t>10.0.22.6</t>
+  </si>
+  <si>
+    <t>10.0.22.11</t>
+  </si>
+  <si>
+    <t>172.10.80.11</t>
+  </si>
+  <si>
+    <t>172.10.80.12</t>
+  </si>
+  <si>
+    <t>172.10.80.13</t>
+  </si>
+  <si>
+    <t>172.10.80.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain : </t>
+  </si>
+  <si>
+    <t>vinc.stage</t>
+  </si>
+  <si>
+    <t>SRV1_DNS.vinc.stage</t>
+  </si>
+  <si>
+    <t>SRV2_DNS.vinc.stage</t>
+  </si>
+  <si>
+    <t>vsphere.vinc.stage</t>
+  </si>
+  <si>
+    <t>infra.vinc.stage</t>
+  </si>
+  <si>
+    <t>Switch :</t>
+  </si>
+  <si>
+    <t>ESXI-1.infra.vinc.stage</t>
+  </si>
+  <si>
+    <t>ESXI-2.infra.vinc.stage</t>
+  </si>
+  <si>
+    <t>ESXI-3.infra.vinc.stage</t>
+  </si>
+  <si>
+    <t>ESXI-4.infra.vinc.stage</t>
+  </si>
+  <si>
+    <t>10.0.22.5/24 10.0.22.6/24</t>
+  </si>
+  <si>
+    <t>vinc.stage infra.vinc.stage</t>
+  </si>
+  <si>
+    <t>Domain :</t>
+  </si>
+  <si>
+    <t>10.0.22.5 10.0.22.6</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Vlan 1-100</t>
+  </si>
+  <si>
+    <t>Vlan 200</t>
+  </si>
+  <si>
+    <t>Vlan 210</t>
+  </si>
+  <si>
+    <t>Vlan 220</t>
+  </si>
+  <si>
+    <t>Vlan 800</t>
+  </si>
+  <si>
+    <t>SRV1-DNS</t>
+  </si>
+  <si>
+    <t>"@SRV1Stage"</t>
+  </si>
+  <si>
+    <t>SRV2-DNS</t>
+  </si>
+  <si>
+    <t>"@SRV2Stage"</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>"@vSphereStage2024"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +308,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,12 +324,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,21 +349,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,116 +708,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6A9276-ACF7-4DB5-8970-4727A0BD4737}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B13" sqref="B13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>200</v>
+      </c>
+      <c r="D2" s="13">
+        <v>210</v>
+      </c>
+      <c r="E2" s="13">
+        <v>220</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,138 +857,604 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0339D2-5575-44F6-9824-AF69BEAC7E70}">
-  <dimension ref="A2:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0502FD-E0C1-4B72-8FBC-C5E90989684F}">
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3093BE2C-88BD-497E-A1CE-1B9DC3A323F0}">
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="E11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCA28A-8031-4A60-BCAF-C7447FA5B75B}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00FC40B-B1A4-488E-A19F-D05B1E41793F}">
+  <dimension ref="B2:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="3"/>
+    <col min="2" max="2" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5">
+        <v>220</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEFF21C-D77C-4189-A9FB-514A9F9F46AB}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="86" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220338-2890-44D1-BD06-AF2EC5266B49}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>43</v>
+      <c r="D2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdh\Documents\GitHub\Stage_Henallux\Mission\VMware vxRail Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B65688-CE4E-4D7D-AB78-9C009E49ED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C183F868-C215-4397-859A-9368B7FAB2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
@@ -1142,7 +1142,7 @@
   <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdh\Documents\GitHub\Stage_Henallux\Mission\VMware vxRail Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C183F868-C215-4397-859A-9368B7FAB2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{C183F868-C215-4397-859A-9368B7FAB2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{799D23CD-9271-4AF7-8D97-CB1B6C8F1E09}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Vlan 210" sheetId="4" r:id="rId4"/>
     <sheet name="Vlan 220" sheetId="5" r:id="rId5"/>
     <sheet name="Vlan 800" sheetId="7" r:id="rId6"/>
-    <sheet name="Switch" sheetId="8" r:id="rId7"/>
+    <sheet name="Vlan 230" sheetId="9" r:id="rId7"/>
+    <sheet name="Switch" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>Nom :</t>
   </si>
@@ -294,6 +295,60 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>p17-20</t>
+  </si>
+  <si>
+    <t>Type connectique</t>
+  </si>
+  <si>
+    <t>RJ45</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Redondance</t>
+  </si>
+  <si>
+    <t>p23-24</t>
+  </si>
+  <si>
+    <t>p1-4</t>
+  </si>
+  <si>
+    <t>vlan 230</t>
+  </si>
+  <si>
+    <t>pour le management switch</t>
+  </si>
+  <si>
+    <t>Switch Management</t>
+  </si>
+  <si>
+    <t>10.0.23.0/24</t>
+  </si>
+  <si>
+    <t>10.0.23.1/24</t>
+  </si>
+  <si>
+    <t>10.0.23.10</t>
+  </si>
+  <si>
+    <t>10.0.23.11</t>
+  </si>
+  <si>
+    <t>10.0.23.12</t>
+  </si>
+  <si>
+    <t>p21-24</t>
+  </si>
+  <si>
+    <t>admin/#Stage2024</t>
+  </si>
+  <si>
+    <t>p9-12</t>
   </si>
 </sst>
 </file>
@@ -341,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -377,11 +432,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,6 +511,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,7 +806,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1041,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCA28A-8031-4A60-BCAF-C7447FA5B75B}">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1141,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00FC40B-B1A4-488E-A19F-D05B1E41793F}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1397,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1402,11 +1497,121 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220338-2890-44D1-BD06-AF2EC5266B49}">
-  <dimension ref="B2:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7F751-60DD-47AA-BA9C-A7061A74BB18}">
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>230</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220338-2890-44D1-BD06-AF2EC5266B49}">
+  <dimension ref="B2:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1433,16 +1638,26 @@
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="D3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
@@ -1450,11 +1665,79 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="19" t="s">
         <v>76</v>
       </c>
+      <c r="D7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinc\Documents\GitHub\Stage_Henallux\Mission\VMware vxRail Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{C183F868-C215-4397-859A-9368B7FAB2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{799D23CD-9271-4AF7-8D97-CB1B6C8F1E09}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B16CB6-8736-457D-9162-6503A343B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="38400" yWindow="5850" windowWidth="12660" windowHeight="16200" firstSheet="3" activeTab="6" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>Nom :</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>p9-12</t>
+  </si>
+  <si>
+    <t>Port :</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -512,22 +518,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3093BE2C-88BD-497E-A1CE-1B9DC3A323F0}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,6 +1131,15 @@
         <v>65</v>
       </c>
     </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1134,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCA28A-8031-4A60-BCAF-C7447FA5B75B}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1227,6 +1240,15 @@
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1237,7 +1259,7 @@
   <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1303,6 +1325,11 @@
       </c>
       <c r="C7" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="26" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -1498,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7F751-60DD-47AA-BA9C-A7061A74BB18}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1581,10 +1608,10 @@
       <c r="D10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
@@ -1599,7 +1626,15 @@
       <c r="E11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,10 +1673,10 @@
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
@@ -1668,31 +1703,31 @@
       <c r="B7" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">

--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinc\Documents\GitHub\Stage_Henallux\Mission\VMware vxRail Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B16CB6-8736-457D-9162-6503A343B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{73B16CB6-8736-457D-9162-6503A343B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5202FE8-6493-45AD-BD44-266D8798B86D}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="5850" windowWidth="12660" windowHeight="16200" firstSheet="3" activeTab="6" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Vlan 200" sheetId="3" r:id="rId3"/>
     <sheet name="Vlan 210" sheetId="4" r:id="rId4"/>
     <sheet name="Vlan 220" sheetId="5" r:id="rId5"/>
-    <sheet name="Vlan 800" sheetId="7" r:id="rId6"/>
-    <sheet name="Vlan 230" sheetId="9" r:id="rId7"/>
+    <sheet name="Vlan 230" sheetId="9" r:id="rId6"/>
+    <sheet name="Vlan 800" sheetId="7" r:id="rId7"/>
     <sheet name="Switch" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
   <si>
     <t>Nom :</t>
   </si>
@@ -355,6 +355,21 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>@Stage2024</t>
   </si>
 </sst>
 </file>
@@ -464,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,16 +539,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3093BE2C-88BD-497E-A1CE-1B9DC3A323F0}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1135,12 +1152,35 @@
       <c r="B13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1150,7 +1190,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,10 +1284,10 @@
       <c r="B12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1328,7 +1368,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1420,6 +1460,124 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7F751-60DD-47AA-BA9C-A7061A74BB18}">
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>230</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEFF21C-D77C-4189-A9FB-514A9F9F46AB}">
   <dimension ref="B2:F11"/>
   <sheetViews>
@@ -1523,130 +1681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7F751-60DD-47AA-BA9C-A7061A74BB18}">
-  <dimension ref="B2:F12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="13">
-        <v>230</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220338-2890-44D1-BD06-AF2EC5266B49}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1673,10 +1713,10 @@
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
@@ -1700,59 +1740,51 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>100</v>
@@ -1760,18 +1792,26 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{73B16CB6-8736-457D-9162-6503A343B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5202FE8-6493-45AD-BD44-266D8798B86D}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{73B16CB6-8736-457D-9162-6503A343B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09FEF501-72AD-4E61-B69B-D12098B88FF6}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Vlan 230" sheetId="9" r:id="rId6"/>
     <sheet name="Vlan 800" sheetId="7" r:id="rId7"/>
     <sheet name="Switch" sheetId="8" r:id="rId8"/>
+    <sheet name="LDAP" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="119">
   <si>
     <t>Nom :</t>
   </si>
@@ -276,30 +277,9 @@
     <t>Vlan 800</t>
   </si>
   <si>
-    <t>SRV1-DNS</t>
-  </si>
-  <si>
-    <t>"@SRV1Stage"</t>
-  </si>
-  <si>
-    <t>SRV2-DNS</t>
-  </si>
-  <si>
-    <t>"@SRV2Stage"</t>
-  </si>
-  <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>"@vSphereStage2024"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>p17-20</t>
-  </si>
-  <si>
     <t>Type connectique</t>
   </si>
   <si>
@@ -309,21 +289,9 @@
     <t>DAC</t>
   </si>
   <si>
-    <t>Redondance</t>
-  </si>
-  <si>
-    <t>p23-24</t>
-  </si>
-  <si>
-    <t>p1-4</t>
-  </si>
-  <si>
     <t>vlan 230</t>
   </si>
   <si>
-    <t>pour le management switch</t>
-  </si>
-  <si>
     <t>Switch Management</t>
   </si>
   <si>
@@ -333,24 +301,9 @@
     <t>10.0.23.1/24</t>
   </si>
   <si>
-    <t>10.0.23.10</t>
-  </si>
-  <si>
-    <t>10.0.23.11</t>
-  </si>
-  <si>
     <t>10.0.23.12</t>
   </si>
   <si>
-    <t>p21-24</t>
-  </si>
-  <si>
-    <t>admin/#Stage2024</t>
-  </si>
-  <si>
-    <t>p9-12</t>
-  </si>
-  <si>
     <t>Port :</t>
   </si>
   <si>
@@ -370,6 +323,84 @@
   </si>
   <si>
     <t>@Stage2024</t>
+  </si>
+  <si>
+    <t>172.16.197.0/24</t>
+  </si>
+  <si>
+    <t>172.16.197.200</t>
+  </si>
+  <si>
+    <t>10.0.10.0/24</t>
+  </si>
+  <si>
+    <t>LDAP Network</t>
+  </si>
+  <si>
+    <t>Trunk</t>
+  </si>
+  <si>
+    <t>MGT OOB</t>
+  </si>
+  <si>
+    <t>10.0.10.1</t>
+  </si>
+  <si>
+    <t>Data1|Data2</t>
+  </si>
+  <si>
+    <t>Pwd :</t>
+  </si>
+  <si>
+    <t>@vSphereStage2024</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>17-20</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>21-24</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10.0.23.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Stage2024</t>
+  </si>
+  <si>
+    <t>#Stage2024</t>
+  </si>
+  <si>
+    <t>10.0.23.11 192.168.0.11</t>
   </si>
 </sst>
 </file>
@@ -417,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -444,29 +475,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -479,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,28 +551,57 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,6 +617,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,7 +882,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -959,7 +1014,9 @@
       <c r="C8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="E8" s="11" t="s">
         <v>56</v>
       </c>
@@ -974,62 +1031,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0502FD-E0C1-4B72-8FBC-C5E90989684F}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1041,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3093BE2C-88BD-497E-A1CE-1B9DC3A323F0}">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1150,33 +1222,36 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>107</v>
+        <v>86</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>108</v>
+      <c r="B14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1187,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCA28A-8031-4A60-BCAF-C7447FA5B75B}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1282,38 +1357,63 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+        <v>86</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00FC40B-B1A4-488E-A19F-D05B1E41793F}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="3"/>
-    <col min="2" max="2" width="13.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="2" width="11.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5">
@@ -1324,7 +1424,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1333,7 +1433,7 @@
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1341,7 +1441,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1349,7 +1449,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1360,7 +1460,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1368,12 +1468,12 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="23" t="s">
-        <v>103</v>
+      <c r="E9" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1387,7 +1487,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1401,57 +1501,45 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>82</v>
-      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="30"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1461,17 +1549,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7F751-60DD-47AA-BA9C-A7061A74BB18}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -1488,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1497,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1506,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1544,33 +1633,53 @@
       <c r="D10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>96</v>
+      <c r="C11" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+        <v>86</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1582,7 +1691,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1683,136 +1792,189 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220338-2890-44D1-BD06-AF2EC5266B49}">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="25"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="C4" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="C5" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>75</v>
       </c>
+      <c r="C6" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDCB5A5-E6B2-40A9-8B9F-8EA59C469381}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{73B16CB6-8736-457D-9162-6503A343B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09FEF501-72AD-4E61-B69B-D12098B88FF6}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{73B16CB6-8736-457D-9162-6503A343B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A08403AB-35E5-486C-B75C-1B58195A6517}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCA28A-8031-4A60-BCAF-C7447FA5B75B}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1794,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220338-2890-44D1-BD06-AF2EC5266B49}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>

--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinc\Documents\GitHub\Stage_Henallux\Mission\VMware vxRail Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{73B16CB6-8736-457D-9162-6503A343B697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A08403AB-35E5-486C-B75C-1B58195A6517}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D972A6-0D79-40B4-A1FC-6BEB71CD0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
@@ -617,10 +617,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCA28A-8031-4A60-BCAF-C7447FA5B75B}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -1919,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDCB5A5-E6B2-40A9-8B9F-8EA59C469381}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinc\Documents\GitHub\Stage_Henallux\Mission\VMware vxRail Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D972A6-0D79-40B4-A1FC-6BEB71CD0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{87D972A6-0D79-40B4-A1FC-6BEB71CD0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA6B3F3D-B4A1-47C0-B18B-E047983E69A1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
-    <sheet name="Vlan 1-100" sheetId="6" r:id="rId2"/>
-    <sheet name="Vlan 200" sheetId="3" r:id="rId3"/>
-    <sheet name="Vlan 210" sheetId="4" r:id="rId4"/>
-    <sheet name="Vlan 220" sheetId="5" r:id="rId5"/>
-    <sheet name="Vlan 230" sheetId="9" r:id="rId6"/>
-    <sheet name="Vlan 800" sheetId="7" r:id="rId7"/>
-    <sheet name="Switch" sheetId="8" r:id="rId8"/>
-    <sheet name="LDAP" sheetId="11" r:id="rId9"/>
+    <sheet name="Résumé" sheetId="13" r:id="rId2"/>
+    <sheet name="Vlan 1-100" sheetId="6" r:id="rId3"/>
+    <sheet name="Vlan 200" sheetId="3" r:id="rId4"/>
+    <sheet name="Vlan 210" sheetId="4" r:id="rId5"/>
+    <sheet name="Vlan 220" sheetId="5" r:id="rId6"/>
+    <sheet name="Vlan 230" sheetId="9" r:id="rId7"/>
+    <sheet name="Vlan 800" sheetId="7" r:id="rId8"/>
+    <sheet name="Switch" sheetId="8" r:id="rId9"/>
+    <sheet name="LDAP" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="123">
   <si>
     <t>Nom :</t>
   </si>
@@ -401,6 +402,18 @@
   </si>
   <si>
     <t>10.0.23.11 192.168.0.11</t>
+  </si>
+  <si>
+    <t>Générale</t>
+  </si>
+  <si>
+    <t>Vlan 230</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>LDAP</t>
   </si>
 </sst>
 </file>
@@ -422,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,8 +460,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -497,11 +558,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,6 +748,110 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,6 +859,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -878,7 +1134,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G8" sqref="B2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1025,12 +1281,1302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDCB5A5-E6B2-40A9-8B9F-8EA59C469381}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="B2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725E57F1-E9A7-4CBD-9045-CC66845E5D6E}">
+  <dimension ref="A1:G82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="45">
+        <v>200</v>
+      </c>
+      <c r="C2" s="46">
+        <v>210</v>
+      </c>
+      <c r="D2" s="47">
+        <v>220</v>
+      </c>
+      <c r="E2" s="53">
+        <v>230</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="45">
+        <v>200</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="76"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="46">
+        <v>210</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="51"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="51"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="52"/>
+      <c r="G29" s="76"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="66">
+        <v>220</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+    </row>
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="73"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="43"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="43"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="53">
+        <v>230</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="53"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="51"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+    </row>
+    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="51"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="50">
+        <v>10</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="51"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="52"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="13">
+        <v>800</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="51"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="51"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="51"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="51"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="51"/>
+      <c r="G64" s="42"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" s="52"/>
+      <c r="G65" s="76"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="44"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="64"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="64"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="64"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="63"/>
+      <c r="C74" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="64"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+    </row>
+    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="64"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="65">
+        <v>999</v>
+      </c>
+      <c r="C77" s="44"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="51"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="51"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="51"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="65"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="51"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A66:G66"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0502FD-E0C1-4B72-8FBC-C5E90989684F}">
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1105,12 +2651,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3093BE2C-88BD-497E-A1CE-1B9DC3A323F0}">
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1256,12 +2802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCA28A-8031-4A60-BCAF-C7447FA5B75B}">
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1391,12 +2937,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00FC40B-B1A4-488E-A19F-D05B1E41793F}">
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E12" sqref="B2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1543,12 +3089,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7F751-60DD-47AA-BA9C-A7061A74BB18}">
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E12" sqref="B2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1682,12 +3228,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEFF21C-D77C-4189-A9FB-514A9F9F46AB}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F11" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1786,12 +3332,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220338-2890-44D1-BD06-AF2EC5266B49}">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="D10" sqref="B2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1909,68 +3455,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDCB5A5-E6B2-40A9-8B9F-8EA59C469381}">
-  <dimension ref="B2:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="13">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{87D972A6-0D79-40B4-A1FC-6BEB71CD0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA6B3F3D-B4A1-47C0-B18B-E047983E69A1}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{87D972A6-0D79-40B4-A1FC-6BEB71CD0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D1BC0C1-5116-4C57-9064-6FD8E854C097}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Vlan 230" sheetId="9" r:id="rId7"/>
     <sheet name="Vlan 800" sheetId="7" r:id="rId8"/>
     <sheet name="Switch" sheetId="8" r:id="rId9"/>
-    <sheet name="LDAP" sheetId="11" r:id="rId10"/>
+    <sheet name="LCAP" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -335,9 +335,6 @@
     <t>10.0.10.0/24</t>
   </si>
   <si>
-    <t>LDAP Network</t>
-  </si>
-  <si>
     <t>Trunk</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>LDAP</t>
+  </si>
+  <si>
+    <t>LCAP Network</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,15 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -762,10 +753,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,8 +773,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,41 +806,43 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1285,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDCB5A5-E6B2-40A9-8B9F-8EA59C469381}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="B2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -1349,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725E57F1-E9A7-4CBD-9045-CC66845E5D6E}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G82"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1362,33 +1353,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="A1" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="40">
         <v>200</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="41">
         <v>210</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="42">
         <v>220</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="48">
         <v>230</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="44" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="13">
@@ -1396,22 +1387,22 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -1419,22 +1410,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="45" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -1442,22 +1433,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -1465,35 +1456,35 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="45" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -1501,795 +1492,688 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="40">
         <v>200</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="46"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="C15" s="46"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="76"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="41">
         <v>210</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="46"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="46"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="C26" s="46"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="42"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="D29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="E29" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="F29" s="47"/>
+      <c r="G29" s="64"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="60">
+        <v>220</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="65"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="48">
+        <v>230</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="46"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="46"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="46"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="46"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="76"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="47"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="66">
-        <v>220</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="B51" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="45">
+        <v>10</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+      <c r="B52" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="45"/>
+      <c r="D52" s="46"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="B53" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="46"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-    </row>
-    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+      <c r="B54" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="46"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="46"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="53">
-        <v>230</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-    </row>
-    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="50">
-        <v>10</v>
-      </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="50" t="s">
+      <c r="B56" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B58" s="13">
         <v>800</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="46"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="C60" s="46"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="C61" s="46"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="C62" s="46"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="C63" s="46"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -2304,11 +2188,10 @@
       <c r="E64" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="51"/>
-      <c r="G64" s="42"/>
+      <c r="F64" s="46"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -2323,231 +2206,197 @@
       <c r="E65" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="76"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="68" t="s">
+      <c r="A66" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="39"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="58"/>
+      <c r="C68" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="69"/>
+      <c r="E68" s="46"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="46"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="46"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="46"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="69"/>
+      <c r="E72" s="46"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="58"/>
+      <c r="C73" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="69"/>
+      <c r="E73" s="46"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="58"/>
+      <c r="C74" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="69"/>
+      <c r="E74" s="46"/>
+    </row>
+    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="69"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="68"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="s">
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="59">
+        <v>999</v>
+      </c>
+      <c r="C77" s="39"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="46"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="46"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="46"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="59"/>
+      <c r="C81" s="46"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B82" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="44"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="64"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="64"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-    </row>
-    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="65">
-        <v>999</v>
-      </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="51"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="51"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
+      <c r="C82" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2625,7 +2474,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -2643,7 +2492,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2630,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>92</v>
@@ -2902,21 +2751,21 @@
         <v>86</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>92</v>
@@ -3058,16 +2907,16 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -3185,13 +3034,13 @@
         <v>47</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -3200,27 +3049,27 @@
         <v>86</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3366,17 +3215,17 @@
         <v>72</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="33"/>
+      <c r="D3" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -3386,7 +3235,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
@@ -3396,7 +3245,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -3406,32 +3255,32 @@
         <v>81</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="35"/>
+        <v>108</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="31"/>
-      <c r="D8" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="33"/>
+      <c r="D8" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="35"/>
+      <c r="D9" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
@@ -3440,10 +3289,10 @@
       <c r="C10" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
+++ b/Mission/VMware vxRail Plan/Plan d'adressage.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinc\Documents\GitHub\Stage_Henallux\Mission\VMware vxRail Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{87D972A6-0D79-40B4-A1FC-6BEB71CD0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D1BC0C1-5116-4C57-9064-6FD8E854C097}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ABDE63-DFD0-49F7-AE16-1FE8583C5690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
+    <workbookView xWindow="38280" yWindow="5730" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{4C9FC732-25BE-4637-86E4-BFF4512E795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Générale" sheetId="1" r:id="rId1"/>
     <sheet name="Résumé" sheetId="13" r:id="rId2"/>
-    <sheet name="Vlan 1-100" sheetId="6" r:id="rId3"/>
-    <sheet name="Vlan 200" sheetId="3" r:id="rId4"/>
-    <sheet name="Vlan 210" sheetId="4" r:id="rId5"/>
-    <sheet name="Vlan 220" sheetId="5" r:id="rId6"/>
-    <sheet name="Vlan 230" sheetId="9" r:id="rId7"/>
-    <sheet name="Vlan 800" sheetId="7" r:id="rId8"/>
-    <sheet name="Switch" sheetId="8" r:id="rId9"/>
-    <sheet name="LCAP" sheetId="11" r:id="rId10"/>
+    <sheet name="Vlan 1-99" sheetId="6" r:id="rId3"/>
+    <sheet name="vMotion" sheetId="14" r:id="rId4"/>
+    <sheet name="Vlan 200" sheetId="3" r:id="rId5"/>
+    <sheet name="Vlan 210" sheetId="4" r:id="rId6"/>
+    <sheet name="Vlan 220" sheetId="5" r:id="rId7"/>
+    <sheet name="Vlan 230" sheetId="9" r:id="rId8"/>
+    <sheet name="Vlan 800" sheetId="7" r:id="rId9"/>
+    <sheet name="Switch" sheetId="8" r:id="rId10"/>
+    <sheet name="LCAP" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="137">
   <si>
     <t>Nom :</t>
   </si>
@@ -107,15 +108,6 @@
     <t>Vlan ID :</t>
   </si>
   <si>
-    <t>1-100</t>
-  </si>
-  <si>
-    <t>10.0.X.0/24</t>
-  </si>
-  <si>
-    <t>10.0.X.1/24</t>
-  </si>
-  <si>
     <t>pour dns et vcenter</t>
   </si>
   <si>
@@ -414,6 +406,57 @@
   </si>
   <si>
     <t>LCAP Network</t>
+  </si>
+  <si>
+    <t>10.0.80.0/24</t>
+  </si>
+  <si>
+    <t>10.0.80.1/24</t>
+  </si>
+  <si>
+    <t>10.0.80.11</t>
+  </si>
+  <si>
+    <t>10.0.80.12</t>
+  </si>
+  <si>
+    <t>10.0.80.13</t>
+  </si>
+  <si>
+    <t>10.0.80.14</t>
+  </si>
+  <si>
+    <t>vMotion</t>
+  </si>
+  <si>
+    <t>10.0.0-9.0/24</t>
+  </si>
+  <si>
+    <t>10.0.0-9.1/24</t>
+  </si>
+  <si>
+    <t>1-99</t>
+  </si>
+  <si>
+    <t>10.0.10.1/24</t>
+  </si>
+  <si>
+    <t>Vlan 1-99</t>
+  </si>
+  <si>
+    <t>Vlan 100</t>
+  </si>
+  <si>
+    <t>10.0.10.11</t>
+  </si>
+  <si>
+    <t>10.0.10.12</t>
+  </si>
+  <si>
+    <t>10.0.10.13</t>
+  </si>
+  <si>
+    <t>10.0.10.14</t>
   </si>
 </sst>
 </file>
@@ -435,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,9 +734,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,9 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,9 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,7 +855,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -829,9 +868,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,6 +878,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1122,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6A9276-ACF7-4DB5-8970-4727A0BD4737}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="B2:G8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1136,9 +1235,10 @@
     <col min="5" max="5" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
@@ -1151,14 +1251,17 @@
       <c r="E2" s="13">
         <v>220</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>20</v>
+      <c r="F2" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="G2" s="13">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>3</v>
@@ -1177,8 +1280,11 @@
       <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1186,19 +1292,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1206,33 +1315,37 @@
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>17</v>
@@ -1249,34 +1362,176 @@
       <c r="G7" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220338-2890-44D1-BD06-AF2EC5266B49}">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="65"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="65"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="67"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDCB5A5-E6B2-40A9-8B9F-8EA59C469381}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -1306,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -1314,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -1325,7 +1580,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>17</v>
@@ -1338,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725E57F1-E9A7-4CBD-9045-CC66845E5D6E}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection sqref="A1:H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1350,446 +1605,466 @@
     <col min="2" max="5" width="20.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="87">
         <v>200</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="88">
         <v>210</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="89">
         <v>220</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="90">
         <v>230</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="F2" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="92">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="H2" s="73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="45" t="s">
+      <c r="D3" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="H3" s="73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="74"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="93"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="87">
+        <v>200</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="44"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="B19" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="40">
+        <v>210</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="C23" s="44"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="44"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="C27" s="40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="D27" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="44"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="44"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="45"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="40">
-        <v>200</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="46"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="46"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="46"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="64"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="41">
-        <v>210</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="46"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="46"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="46"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="46"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="46"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="46"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="64"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="60">
+      <c r="B31" s="57">
         <v>220</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>23</v>
+      <c r="C31" s="50" t="s">
+        <v>20</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1797,11 +2072,11 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>28</v>
+      <c r="B32" s="50" t="s">
+        <v>25</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1810,11 +2085,11 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>27</v>
+      <c r="B33" s="50" t="s">
+        <v>24</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1823,11 +2098,11 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="52" t="s">
-        <v>26</v>
+      <c r="B34" s="50" t="s">
+        <v>23</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1836,14 +2111,14 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>67</v>
+      <c r="B35" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1851,10 +2126,10 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="2"/>
@@ -1864,635 +2139,712 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="61"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="46">
+        <v>230</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="44"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="44"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="46"/>
+      <c r="C45" s="44"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="44"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="44"/>
+    </row>
+    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="44"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="44"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="75"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="44"/>
+      <c r="D53" s="75"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="75"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="69"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="75"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="44"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="80">
+        <v>100</v>
+      </c>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="74"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="13">
+        <v>800</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="44"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="44"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="44"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="44"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="44"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C71" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D71" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="52" t="s">
+      <c r="E71" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="44"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C72" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D72" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="52" t="s">
+      <c r="E72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="45"/>
+      <c r="G72" s="60"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="65" t="s">
+      <c r="B74" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="38"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="55"/>
+      <c r="C75" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="64"/>
+      <c r="E75" s="44"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="44"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="44"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="44"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="64"/>
+      <c r="E79" s="44"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="55"/>
+      <c r="C80" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="64"/>
+      <c r="E80" s="44"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="55"/>
+      <c r="C81" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="64"/>
+      <c r="E81" s="44"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="55"/>
+      <c r="C82" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="64"/>
+      <c r="E82" s="44"/>
+    </row>
+    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A83" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="64"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="56">
+        <v>999</v>
+      </c>
+      <c r="C85" s="38"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="48">
-        <v>230</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="46"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="C86" s="44"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="46"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="B87" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="44"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="46"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="B88" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="44"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="46"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="48" t="s">
+      <c r="B89" s="56"/>
+      <c r="C89" s="44"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="46"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="46"/>
-    </row>
-    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="46"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="45">
-        <v>10</v>
-      </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="46"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="46"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="46"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="46"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="13">
-        <v>800</v>
-      </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="46"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="46"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="46"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="46"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="46"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="46"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F65" s="47"/>
-      <c r="G65" s="64"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="69"/>
-      <c r="E68" s="46"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="46"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="46"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="46"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="69"/>
-      <c r="E72" s="46"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="46"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="58"/>
-      <c r="C74" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="46"/>
-    </row>
-    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="59">
-        <v>999</v>
-      </c>
-      <c r="C77" s="39"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" s="46"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="46"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="46"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="59"/>
-      <c r="C81" s="46"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="46"/>
+      <c r="C90" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A9:G9"/>
+  <mergeCells count="16">
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A84:G84"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A73:G73"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="A66:G66"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0502FD-E0C1-4B72-8FBC-C5E90989684F}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2501,11 +2853,109 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5933012-70F5-4A60-9706-7554A7FED9D4}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3093BE2C-88BD-497E-A1CE-1B9DC3A323F0}">
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2550,11 +3000,11 @@
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>17</v>
@@ -2564,85 +3014,85 @@
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>31</v>
+      <c r="F11" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="E13" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2651,12 +3101,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCA28A-8031-4A60-BCAF-C7447FA5B75B}">
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F12"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2687,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -2695,18 +3145,18 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>17</v>
@@ -2716,68 +3166,68 @@
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2786,150 +3236,150 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00FC40B-B1A4-488E-A19F-D05B1E41793F}">
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="B2:E12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="11.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5">
         <v>220</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="6" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
-        <v>61</v>
+      <c r="B7" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="20" t="s">
-        <v>87</v>
+      <c r="E9" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>101</v>
+      <c r="B13" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1"/>
     </row>
   </sheetData>
@@ -2938,12 +3388,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7F751-60DD-47AA-BA9C-A7061A74BB18}">
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="B2:E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2968,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2977,7 +3427,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2986,7 +3436,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2994,12 +3444,12 @@
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>17</v>
@@ -3018,58 +3468,58 @@
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>71</v>
+      <c r="D10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>117</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>116</v>
+        <v>97</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3077,12 +3527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEFF21C-D77C-4189-A9FB-514A9F9F46AB}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="B2:F11"/>
+      <selection activeCell="F11" sqref="B10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3115,7 +3565,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -3123,18 +3573,18 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>18</v>
@@ -3144,34 +3594,34 @@
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3179,129 +3629,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA220338-2890-44D1-BD06-AF2EC5266B49}">
-  <dimension ref="B2:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="B2:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="70"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="72"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="70"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="72"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="70"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D7:E7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>